--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,9 +415,41 @@
         <v>MT Net</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Youssef You</v>
+      </c>
+      <c r="B2" t="str">
+        <v>12345678</v>
+      </c>
+      <c r="C2" t="str">
+        <v>112456876821421212454587</v>
+      </c>
+      <c r="E2" t="str">
+        <v>123132</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G2" t="str">
+        <v>666/pv666</v>
+      </c>
+      <c r="H2" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I2">
+        <v>10000</v>
+      </c>
+      <c r="J2">
+        <v>1500</v>
+      </c>
+      <c r="K2">
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,217 +417,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">STE LOCATION </v>
+        <v>lala morale</v>
       </c>
       <c r="B2" t="str">
-        <v>31451</v>
+        <v>113564</v>
       </c>
       <c r="C2" t="str">
-        <v>313156456461638489461313</v>
+        <v>114321654687987654543213</v>
       </c>
       <c r="D2" t="str">
-        <v>MAARIF</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>23132</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>512/CASA 2</v>
+        <v>001/TEST DR/AV</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>5000</v>
+        <v>48000</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">STE MAISON </v>
+        <v>YASSINE TYEST</v>
       </c>
       <c r="B3" t="str">
-        <v>56987</v>
+        <v>BB125874</v>
       </c>
       <c r="C3" t="str">
-        <v>322656131365484946461313</v>
+        <v>115649679785432432321321</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve">2 MARS </v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>BMCE</v>
+        <v>tesqt</v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>512/CASA 2</v>
+        <v>001/TEST DR/AV</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>5000</v>
+        <v>72000</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="K3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>STT22</v>
-      </c>
-      <c r="B4" t="str">
-        <v>654566</v>
-      </c>
-      <c r="C4" t="str">
-        <v>321654161265465131654846</v>
-      </c>
-      <c r="D4" t="str">
-        <v>AG5</v>
-      </c>
-      <c r="E4" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G4" t="str">
-        <v>903/CASA ANFA/AV</v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>15000</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>SARA DADA</v>
-      </c>
-      <c r="B5" t="str">
-        <v>F354654</v>
-      </c>
-      <c r="C5" t="str">
-        <v>365464631351684894899761</v>
-      </c>
-      <c r="D5" t="str">
-        <v>RABAT AGDAL</v>
-      </c>
-      <c r="E5" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G5" t="str">
-        <v>602/CASA 2MARS</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>40000</v>
-      </c>
-      <c r="J5">
-        <v>3000</v>
-      </c>
-      <c r="K5">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve">KHALID VAVA </v>
-      </c>
-      <c r="B6" t="str">
-        <v>O3546845</v>
-      </c>
-      <c r="C6" t="str">
-        <v>321564613641864613156486</v>
-      </c>
-      <c r="D6" t="str">
-        <v>AG 5</v>
-      </c>
-      <c r="E6" t="str">
-        <v>bmce</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G6" t="str">
-        <v>120/SUP 2/AV</v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>9000</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>KARIMA NANA</v>
-      </c>
-      <c r="B7" t="str">
-        <v>F6546856</v>
-      </c>
-      <c r="C7" t="str">
-        <v>547654165416485126984416</v>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <v>NO</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G7" t="str">
-        <v>120/SUP 2/AV</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>6000</v>
-      </c>
-      <c r="J7">
-        <v>600</v>
-      </c>
-      <c r="K7">
-        <v>5400</v>
+        <v>66600</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,77 +417,182 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lala morale</v>
+        <v>STT22</v>
       </c>
       <c r="B2" t="str">
-        <v>113564</v>
+        <v>654566</v>
       </c>
       <c r="C2" t="str">
-        <v>114321654687987654543213</v>
+        <v>321654161265465131654846</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>AG5</v>
       </c>
       <c r="E2" t="str">
-        <v>23132</v>
+        <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>001/TEST DR/AV</v>
+        <v>903/CASA ANFA/AV</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>48000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>YASSINE TYEST</v>
+        <v>ZAZA EELA</v>
       </c>
       <c r="B3" t="str">
-        <v>BB125874</v>
+        <v>L3546465</v>
       </c>
       <c r="C3" t="str">
-        <v>115649679785432432321321</v>
+        <v>424684743164132132365461</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>AGGG89</v>
       </c>
       <c r="E3" t="str">
-        <v>tesqt</v>
+        <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v>Point de vente</v>
       </c>
       <c r="G3" t="str">
-        <v>001/TEST DR/AV</v>
+        <v>965/PVFF222/AV</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>72000</v>
+        <v>6000</v>
       </c>
       <c r="J3">
+        <v>600</v>
+      </c>
+      <c r="K3">
         <v>5400</v>
       </c>
-      <c r="K3">
-        <v>66600</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>SARA ELLLL</v>
+      </c>
+      <c r="B4" t="str">
+        <v>K5346431</v>
+      </c>
+      <c r="C4" t="str">
+        <v>132364598789763312145468</v>
+      </c>
+      <c r="D4" t="str">
+        <v>AGGGGYYY6655</v>
+      </c>
+      <c r="E4" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G4" t="str">
+        <v>965/PVFF222/AV</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>14000</v>
+      </c>
+      <c r="J4">
+        <v>2100</v>
+      </c>
+      <c r="K4">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>STE 663</v>
+      </c>
+      <c r="B5" t="str">
+        <v>354653</v>
+      </c>
+      <c r="C5" t="str">
+        <v>345463564313546847867431</v>
+      </c>
+      <c r="D5" t="str">
+        <v>AGG4455</v>
+      </c>
+      <c r="E5" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G5" t="str">
+        <v>662/PV 55586/AV</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>5000</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>AVENT LLLL</v>
+      </c>
+      <c r="B6" t="str">
+        <v>H6356525</v>
+      </c>
+      <c r="C6" t="str">
+        <v>321456468532136546431568</v>
+      </c>
+      <c r="D6" t="str">
+        <v>AGGGTTT3563</v>
+      </c>
+      <c r="E6" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G6" t="str">
+        <v>662/PV 55586/AV</v>
+      </c>
+      <c r="H6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I6">
+        <v>5000</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+      <c r="K6">
+        <v>4500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -730,9 +730,44 @@
         <v>66600</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v xml:space="preserve">YAYA TATA </v>
+      </c>
+      <c r="B11" t="str">
+        <v>KL365695</v>
+      </c>
+      <c r="C11" t="str">
+        <v>354654613156464166848965</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G11" t="str">
+        <v>569/SUP 9999</v>
+      </c>
+      <c r="H11" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I11">
+        <v>80000</v>
+      </c>
+      <c r="J11">
+        <v>12000</v>
+      </c>
+      <c r="K11">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -730,44 +730,9 @@
         <v>66600</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v xml:space="preserve">YAYA TATA </v>
-      </c>
-      <c r="B11" t="str">
-        <v>KL365695</v>
-      </c>
-      <c r="C11" t="str">
-        <v>354654613156464166848965</v>
-      </c>
-      <c r="D11" t="str">
-        <v/>
-      </c>
-      <c r="E11" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G11" t="str">
-        <v>569/SUP 9999</v>
-      </c>
-      <c r="H11" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I11">
-        <v>80000</v>
-      </c>
-      <c r="J11">
-        <v>12000</v>
-      </c>
-      <c r="K11">
-        <v>68000</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,322 +417,112 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>STT22</v>
+        <v>Test Tse</v>
       </c>
       <c r="B2" t="str">
-        <v>654566</v>
+        <v>bj123465</v>
       </c>
       <c r="C2" t="str">
-        <v>321654161265465131654846</v>
+        <v>114649316546546546546579</v>
       </c>
       <c r="D2" t="str">
-        <v>AG5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>321</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>903/CASA ANFA/AV</v>
+        <v>001/DR TANGER</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="K2">
-        <v>15000</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ZAZA EELA</v>
+        <v>Ahmed laaraichi</v>
       </c>
       <c r="B3" t="str">
-        <v>L3546465</v>
+        <v>BJ12348</v>
       </c>
       <c r="C3" t="str">
-        <v>424684743164132132365461</v>
+        <v>114679134679785232156468</v>
       </c>
       <c r="D3" t="str">
-        <v>AGGG89</v>
+        <v>BMCE BNIMAKADA</v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v>BMCE</v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v>Siège</v>
       </c>
       <c r="G3" t="str">
-        <v>965/PVFF222/AV</v>
+        <v>006/123</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="J3">
-        <v>600</v>
+        <v>13500</v>
       </c>
       <c r="K3">
-        <v>5400</v>
+        <v>166500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SARA ELLLL</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" t="str">
-        <v>K5346431</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <v>132364598789763312145468</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D4" t="str">
-        <v>AGGGGYYY6655</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>BMCE</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v>Point de vente</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v>965/PVFF222/AV</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="J4">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="K4">
-        <v>11900</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>STE 663</v>
-      </c>
-      <c r="B5" t="str">
-        <v>354653</v>
-      </c>
-      <c r="C5" t="str">
-        <v>345463564313546847867431</v>
-      </c>
-      <c r="D5" t="str">
-        <v>AGG4455</v>
-      </c>
-      <c r="E5" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G5" t="str">
-        <v>662/PV 55586/AV</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>5000</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>AVENT LLLL</v>
-      </c>
-      <c r="B6" t="str">
-        <v>H6356525</v>
-      </c>
-      <c r="C6" t="str">
-        <v>321456468532136546431568</v>
-      </c>
-      <c r="D6" t="str">
-        <v>AGGGTTT3563</v>
-      </c>
-      <c r="E6" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G6" t="str">
-        <v>662/PV 55586/AV</v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>5000</v>
-      </c>
-      <c r="J6">
-        <v>500</v>
-      </c>
-      <c r="K6">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>LOCATION 55</v>
-      </c>
-      <c r="B7" t="str">
-        <v>3546546</v>
-      </c>
-      <c r="C7" t="str">
-        <v>365465456464646489475614</v>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G7" t="str">
-        <v>788/SUPP600/AV</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>10000</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>KJIKHIUHI</v>
-      </c>
-      <c r="B8" t="str">
-        <v>35486464</v>
-      </c>
-      <c r="C8" t="str">
-        <v>352564894621564894615616</v>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <v>KKKK</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G8" t="str">
-        <v>788/SUPP600/AV</v>
-      </c>
-      <c r="H8" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I8">
-        <v>10000</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>MORAD FFFF</v>
-      </c>
-      <c r="B9" t="str">
-        <v>J5498456</v>
-      </c>
-      <c r="C9" t="str">
-        <v>368489494656546546465464</v>
-      </c>
-      <c r="D9" t="str">
-        <v>AGGTT 669</v>
-      </c>
-      <c r="E9" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G9" t="str">
-        <v>668/TANGER/AV</v>
-      </c>
-      <c r="H9" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I9">
-        <v>48000</v>
-      </c>
-      <c r="J9">
-        <v>3600</v>
-      </c>
-      <c r="K9">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>SALMA KJLJOIO</v>
-      </c>
-      <c r="B10" t="str">
-        <v>J5648645</v>
-      </c>
-      <c r="C10" t="str">
-        <v>549865265269845263259685</v>
-      </c>
-      <c r="D10" t="str">
-        <v>LKOK</v>
-      </c>
-      <c r="E10" t="str">
-        <v xml:space="preserve">BP </v>
-      </c>
-      <c r="F10" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G10" t="str">
-        <v>668/TANGER/AV</v>
-      </c>
-      <c r="H10" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I10">
-        <v>72000</v>
-      </c>
-      <c r="J10">
-        <v>5400</v>
-      </c>
-      <c r="K10">
-        <v>66600</v>
+        <v>237500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,112 +417,182 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Test Tse</v>
+        <v>Mimo crimo</v>
       </c>
       <c r="B2" t="str">
-        <v>bj123465</v>
+        <v>ad646456</v>
       </c>
       <c r="C2" t="str">
-        <v>114649316546546546546579</v>
+        <v>365165415640064545465654</v>
       </c>
       <c r="D2" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>321</v>
+        <v>a46d</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>001/DR TANGER</v>
+        <v>797/DR TADLA</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>80000</v>
+        <v>6000</v>
       </c>
       <c r="J2">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="K2">
-        <v>71000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ahmed laaraichi</v>
+        <v>Ali Ali</v>
       </c>
       <c r="B3" t="str">
-        <v>BJ12348</v>
+        <v>aa654556</v>
       </c>
       <c r="C3" t="str">
-        <v>114679134679785232156468</v>
+        <v>566564505100516654656545</v>
       </c>
       <c r="D3" t="str">
-        <v>BMCE BNIMAKADA</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>BMCE</v>
+        <v>ad66</v>
       </c>
       <c r="F3" t="str">
-        <v>Siège</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>006/123</v>
+        <v>010/DR010/AV</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>180000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>166500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Mohamed berrada</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ada666</v>
       </c>
       <c r="C4" t="str">
-        <v xml:space="preserve"> </v>
+        <v>032165467887646545640545</v>
       </c>
       <c r="D4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v xml:space="preserve"> </v>
+        <v>aa121</v>
       </c>
       <c r="F4" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Direction régionale</v>
       </c>
       <c r="G4" t="str">
-        <v xml:space="preserve"> </v>
+        <v>001/DR TANGER/AV</v>
       </c>
       <c r="H4" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>260000</v>
+        <v>5000</v>
       </c>
       <c r="J4">
-        <v>22500</v>
+        <v>500</v>
       </c>
       <c r="K4">
-        <v>237500</v>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>IBM</v>
+      </c>
+      <c r="B5" t="str">
+        <v>117946464</v>
+      </c>
+      <c r="C5" t="str">
+        <v>114879877777777777777777</v>
+      </c>
+      <c r="D5" t="str">
+        <v>BMCE TESTT</v>
+      </c>
+      <c r="E5" t="str">
+        <v>BMCE</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G5" t="str">
+        <v>000/DR DEV</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>60000</v>
+      </c>
+      <c r="J5">
+        <v>1500</v>
+      </c>
+      <c r="K5">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I6">
+        <v>73000</v>
+      </c>
+      <c r="J6">
+        <v>2600</v>
+      </c>
+      <c r="K6">
+        <v>70400</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_4_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,182 +417,42 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Mimo crimo</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B2" t="str">
-        <v>ad646456</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C2" t="str">
-        <v>365165415640064545465654</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E2" t="str">
-        <v>a46d</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G2" t="str">
-        <v>797/DR TADLA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H2" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Ali Ali</v>
-      </c>
-      <c r="B3" t="str">
-        <v>aa654556</v>
-      </c>
-      <c r="C3" t="str">
-        <v>566564505100516654656545</v>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v>ad66</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G3" t="str">
-        <v>010/DR010/AV</v>
-      </c>
-      <c r="H3" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I3">
-        <v>2000</v>
-      </c>
-      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="K3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Mohamed berrada</v>
-      </c>
-      <c r="B4" t="str">
-        <v>ada666</v>
-      </c>
-      <c r="C4" t="str">
-        <v>032165467887646545640545</v>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v>aa121</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G4" t="str">
-        <v>001/DR TANGER/AV</v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>5000</v>
-      </c>
-      <c r="J4">
-        <v>500</v>
-      </c>
-      <c r="K4">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>IBM</v>
-      </c>
-      <c r="B5" t="str">
-        <v>117946464</v>
-      </c>
-      <c r="C5" t="str">
-        <v>114879877777777777777777</v>
-      </c>
-      <c r="D5" t="str">
-        <v>BMCE TESTT</v>
-      </c>
-      <c r="E5" t="str">
-        <v>BMCE</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G5" t="str">
-        <v>000/DR DEV</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>60000</v>
-      </c>
-      <c r="J5">
-        <v>1500</v>
-      </c>
-      <c r="K5">
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I6">
-        <v>73000</v>
-      </c>
-      <c r="J6">
-        <v>2600</v>
-      </c>
-      <c r="K6">
-        <v>70400</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>